--- a/output/Transitions Rule/summary_tables/transition_rule_summary_tables_AEROPRES-SIBLEY.xlsx
+++ b/output/Transitions Rule/summary_tables/transition_rule_summary_tables_AEROPRES-SIBLEY.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -30,6 +30,12 @@
     <t xml:space="preserve">Within 3 miles of HFC production facility</t>
   </si>
   <si>
+    <t xml:space="preserve">Within 5 miles of HFC production facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Within 10 miles of HFC production facility</t>
+  </si>
+  <si>
     <t xml:space="preserve">% White</t>
   </si>
   <si>
@@ -67,6 +73,12 @@
   </si>
   <si>
     <t xml:space="preserve">Within 3 mile of HFC production facility SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Within 5 mile of HFC production facility SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Within 10 mile of HFC production facility SD</t>
   </si>
 </sst>
 </file>
@@ -414,10 +426,16 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
         <v>84</v>
@@ -431,10 +449,16 @@
       <c r="E2" t="n">
         <v>77</v>
       </c>
+      <c r="F2" t="n">
+        <v>79</v>
+      </c>
+      <c r="G2" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
         <v>7.6</v>
@@ -448,10 +472,16 @@
       <c r="E3" t="n">
         <v>21</v>
       </c>
+      <c r="F3" t="n">
+        <v>18</v>
+      </c>
+      <c r="G3" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
         <v>8.2</v>
@@ -465,10 +495,16 @@
       <c r="E4" t="n">
         <v>1.8</v>
       </c>
+      <c r="F4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
         <v>10</v>
@@ -482,10 +518,16 @@
       <c r="E5" t="n">
         <v>1.5</v>
       </c>
+      <c r="F5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
         <v>67</v>
@@ -499,10 +541,16 @@
       <c r="E6" t="n">
         <v>36</v>
       </c>
+      <c r="F6" t="n">
+        <v>39</v>
+      </c>
+      <c r="G6" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
         <v>6.8</v>
@@ -516,10 +564,16 @@
       <c r="E7" t="n">
         <v>15</v>
       </c>
+      <c r="F7" t="n">
+        <v>14</v>
+      </c>
+      <c r="G7" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
         <v>5.1</v>
@@ -533,16 +587,22 @@
       <c r="E8" t="n">
         <v>12</v>
       </c>
+      <c r="F8" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D9" t="n">
         <v>40</v>
@@ -550,22 +610,34 @@
       <c r="E9" t="n">
         <v>40</v>
       </c>
+      <c r="F9" t="n">
+        <v>40</v>
+      </c>
+      <c r="G9" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
       <c r="C10" t="n">
-        <v>0.59</v>
+        <v>0.43</v>
       </c>
       <c r="D10" t="n">
-        <v>0.56</v>
+        <v>0.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -587,21 +659,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
         <v>19</v>
@@ -615,10 +693,16 @@
       <c r="E2" t="n">
         <v>16</v>
       </c>
+      <c r="F2" t="n">
+        <v>15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
         <v>16</v>
@@ -632,10 +716,16 @@
       <c r="E3" t="n">
         <v>15</v>
       </c>
+      <c r="F3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
         <v>12</v>
@@ -649,10 +739,16 @@
       <c r="E4" t="n">
         <v>1.8</v>
       </c>
+      <c r="F4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
         <v>15</v>
@@ -666,10 +762,16 @@
       <c r="E5" t="n">
         <v>4</v>
       </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
         <v>28</v>
@@ -683,10 +785,16 @@
       <c r="E6" t="n">
         <v>15</v>
       </c>
+      <c r="F6" t="n">
+        <v>13</v>
+      </c>
+      <c r="G6" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
         <v>7.6</v>
@@ -700,10 +808,16 @@
       <c r="E7" t="n">
         <v>8.3</v>
       </c>
+      <c r="F7" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
         <v>6.4</v>
@@ -717,39 +831,57 @@
       <c r="E8" t="n">
         <v>8.6</v>
       </c>
+      <c r="F8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="C9" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D9" t="n">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.64</v>
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
         <v>0.14</v>
       </c>
       <c r="C10" t="n">
-        <v>0.12</v>
+        <v>0.084</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0041</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0032</v>
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/Transitions Rule/summary_tables/transition_rule_summary_tables_AEROPRES-SIBLEY.xlsx
+++ b/output/Transitions Rule/summary_tables/transition_rule_summary_tables_AEROPRES-SIBLEY.xlsx
@@ -18,10 +18,10 @@
     <t xml:space="preserve">Variable</t>
   </si>
   <si>
-    <t xml:space="preserve">Rural Areas (National Average)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rural Areas (State Average)</t>
+    <t xml:space="preserve">National Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average</t>
   </si>
   <si>
     <t xml:space="preserve">Within 1 mile of HFC production facility</t>
@@ -63,10 +63,10 @@
     <t xml:space="preserve">Total Respiratory (hazard quotient)</t>
   </si>
   <si>
-    <t xml:space="preserve">Rural Areas (National Average) SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rural Areas (State Average) SD</t>
+    <t xml:space="preserve">National Average SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Average SD</t>
   </si>
   <si>
     <t xml:space="preserve">Within 1 mile of HFC production facility SD</t>
@@ -438,22 +438,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C2" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D2" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E2" t="n">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="F2" t="n">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="G2" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -461,22 +461,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>7.6</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E3" t="n">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F3" t="n">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G3" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -484,22 +484,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>8.2</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>4.7</v>
+        <v>5.8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.88</v>
+        <v>2.7</v>
       </c>
       <c r="E4" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="5">
@@ -507,22 +507,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>3.6</v>
+        <v>5.1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.75</v>
+        <v>1.6</v>
       </c>
       <c r="E5" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="F5" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="G5" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="6">
@@ -530,19 +530,19 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C6" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E6" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F6" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G6" t="n">
         <v>38</v>
@@ -553,22 +553,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="C7" t="n">
-        <v>9.8</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -576,22 +576,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="C8" t="n">
-        <v>7.8</v>
+        <v>8.3</v>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>9.8</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>8.3</v>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G8" t="n">
-        <v>8.9</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="9">
@@ -599,10 +599,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D9" t="n">
         <v>40</v>
@@ -622,10 +622,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
       <c r="C10" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="D10" t="n">
         <v>0.5</v>
@@ -682,22 +682,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
+        <v>27</v>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
         <v>19</v>
       </c>
-      <c r="C2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14</v>
-      </c>
       <c r="E2" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G2" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -705,22 +705,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G3" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -728,22 +728,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.85</v>
+        <v>1.1</v>
       </c>
       <c r="E4" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="5">
@@ -751,22 +751,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>5.3</v>
+        <v>7.5</v>
       </c>
       <c r="D5" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="6">
@@ -774,22 +774,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>4.3</v>
       </c>
       <c r="E6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" t="n">
         <v>15</v>
       </c>
-      <c r="F6" t="n">
-        <v>13</v>
-      </c>
       <c r="G6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -797,22 +797,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>7.6</v>
+        <v>8.7</v>
       </c>
       <c r="C7" t="n">
-        <v>9.7</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>0.65</v>
       </c>
       <c r="E7" t="n">
-        <v>8.3</v>
+        <v>19</v>
       </c>
       <c r="F7" t="n">
-        <v>9.1</v>
+        <v>19</v>
       </c>
       <c r="G7" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -820,22 +820,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>6.4</v>
+        <v>7.8</v>
       </c>
       <c r="C8" t="n">
-        <v>8.9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>3.9</v>
       </c>
       <c r="E8" t="n">
-        <v>8.6</v>
+        <v>7.9</v>
       </c>
       <c r="F8" t="n">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>6.6</v>
+        <v>8.8</v>
       </c>
     </row>
     <row r="9">
@@ -843,10 +843,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -869,7 +869,7 @@
         <v>0.14</v>
       </c>
       <c r="C10" t="n">
-        <v>0.084</v>
+        <v>0.1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
